--- a/biology/Zoologie/Cyclocorus_nuchalis/Cyclocorus_nuchalis.xlsx
+++ b/biology/Zoologie/Cyclocorus_nuchalis/Cyclocorus_nuchalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclocorus nuchalis  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclocorus nuchalis  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Philippines[1]. Elle se rencontre à Basilan et Mindanao.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre à Basilan et Mindanao.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 mars 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 mars 2012) :
 Cyclocorus nuchalis nuchalis Taylor, 1923
 Cyclocorus nuchalis taylori Leviton, 1967</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Cyclocorus nuchalis taylori est nommée en l'honneur d'Edward Harrison Taylor[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Cyclocorus nuchalis taylori est nommée en l'honneur d'Edward Harrison Taylor
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taylor, 1923 : Additions to the herpetological fauna of the Philippine Islands, III. Philippine Journal of Science, vol. 22, p. 515-557 (texte intégral).
 Leviton 1967 "1965" : Contributions to a review of Philippine snakes, IX. The snakes of the genus Cyclocorus. Philippine Journal of Science, vol. 94, no 4, p. 519-533 (texte intégral).</t>
